--- a/assets/excel/Report Nominatif.xlsx
+++ b/assets/excel/Report Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>REPORT NOMINATIF</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Abdul Latief Baedhowi</t>
   </si>
   <si>
-    <t>Palembang/1982-06-08/2012.12.01.002/1</t>
+    <t>//2012.12.01.002/1</t>
   </si>
   <si>
     <t>Direktur Operasional</t>
@@ -59,7 +59,7 @@
     <t>SD/-/1995-02-01</t>
   </si>
   <si>
-    <t>jakarta pusat/082180712764</t>
+    <t>/</t>
   </si>
   <si>
     <t>Ahmad Hanif</t>
@@ -74,7 +74,19 @@
     <t>SMP/-/1998-10-06</t>
   </si>
   <si>
-    <t>/</t>
+    <t>Iwan Setiyawan</t>
+  </si>
+  <si>
+    <t>//2012.12.01.004/1</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>SMA/IPA/2001-03-14</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +510,33 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report Nominatif.xlsx
+++ b/assets/excel/Report Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>REPORT NOMINATIF</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Abdul Latief Baedhowi</t>
   </si>
   <si>
-    <t>Palembang/1982-06-08/2012.12.01.002/1</t>
+    <t>//2012.12.01.002/1</t>
   </si>
   <si>
     <t>Direktur Operasional</t>
@@ -59,7 +59,7 @@
     <t>SD/-/1995-02-01</t>
   </si>
   <si>
-    <t>jakarta pusat/082180712764</t>
+    <t>/</t>
   </si>
   <si>
     <t>Ahmad Hanif</t>
@@ -74,7 +74,16 @@
     <t>SMP/-/1998-10-06</t>
   </si>
   <si>
-    <t>/</t>
+    <t>Iwan Setiyawan</t>
+  </si>
+  <si>
+    <t>//2012.12.01.004/1</t>
+  </si>
+  <si>
+    <t>Direktur Utama</t>
+  </si>
+  <si>
+    <t>SMA/IPA/2001-03-14</t>
   </si>
 </sst>
 </file>
@@ -410,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +507,33 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report Nominatif.xlsx
+++ b/assets/excel/Report Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>REPORT NOMINATIF</t>
   </si>
@@ -44,10 +44,16 @@
     <t>Alamat &amp; Telp</t>
   </si>
   <si>
+    <t>Ket</t>
+  </si>
+  <si>
     <t>Abdul Latief Baedhowi</t>
   </si>
   <si>
-    <t>Palembang/1982-06-08/2012.12.01.002/1</t>
+    <t>Palembang/1982-06-08/2012.12.01.002/Islam</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
   </si>
   <si>
     <t>Direktur Operasional</t>
@@ -56,25 +62,913 @@
     <t>0000-00-00</t>
   </si>
   <si>
-    <t>SD/-/1995-02-01</t>
+    <t>SMA/IPA/2001-03-14</t>
   </si>
   <si>
     <t>jakarta pusat/082180712764</t>
   </si>
   <si>
+    <t>Aktif</t>
+  </si>
+  <si>
     <t>Ahmad Hanif</t>
   </si>
   <si>
-    <t>//2012.12.01.003/1</t>
+    <t>//2012.12.01.003/Islam</t>
+  </si>
+  <si>
+    <t>S1/Ekonomi/2011-06-21</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Iwan Setiyawan</t>
+  </si>
+  <si>
+    <t>//2012.12.01.004/Islam</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Tri Wardaningtyas</t>
+  </si>
+  <si>
+    <t>//2012.12.01.005/Islam</t>
+  </si>
+  <si>
+    <t>S1/Statitik/1999-07-07</t>
+  </si>
+  <si>
+    <t>Sudarsono</t>
+  </si>
+  <si>
+    <t>//2012.12.01.006/Islam</t>
+  </si>
+  <si>
+    <t>S1/IT/2012-01-09</t>
+  </si>
+  <si>
+    <t>Tri Bekti Rianto</t>
+  </si>
+  <si>
+    <t>//2012.12.01.008/Islam</t>
+  </si>
+  <si>
+    <t>Samiran</t>
+  </si>
+  <si>
+    <t>//2012.12.01.009/Islam</t>
+  </si>
+  <si>
+    <t>SMP//1966-07-14</t>
+  </si>
+  <si>
+    <t>Edy Rusmanto</t>
+  </si>
+  <si>
+    <t>//2012.12.01.010/Islam</t>
+  </si>
+  <si>
+    <t>SMK/Teknik Mesin/1998-01-13</t>
+  </si>
+  <si>
+    <t>Roni Slamet</t>
+  </si>
+  <si>
+    <t>//2012.12.01.011/Islam</t>
+  </si>
+  <si>
+    <t>D3/Teknik Informatika/2010-02-02</t>
+  </si>
+  <si>
+    <t>Ihsanuddin</t>
+  </si>
+  <si>
+    <t>//2012.12.01.012/Islam</t>
+  </si>
+  <si>
+    <t>D3/Statitik/2007-07-24</t>
+  </si>
+  <si>
+    <t>Sukirman</t>
+  </si>
+  <si>
+    <t>//2012.12.01.013/Islam</t>
+  </si>
+  <si>
+    <t>Bambang Gunartok</t>
+  </si>
+  <si>
+    <t>//2012.12.01.014/Islam</t>
+  </si>
+  <si>
+    <t>D3/Ilmu Ekonomi Islam/2003-03-12</t>
+  </si>
+  <si>
+    <t>Rudi Riswanto</t>
+  </si>
+  <si>
+    <t>//2012.12.01.015/Islam</t>
+  </si>
+  <si>
+    <t>S1/Ilmu Hukum/2014-03-12</t>
+  </si>
+  <si>
+    <t>Maryono</t>
+  </si>
+  <si>
+    <t>//2012.12.01.016/Islam</t>
+  </si>
+  <si>
+    <t>S1/TI/2011-03-16</t>
+  </si>
+  <si>
+    <t>Muryanto</t>
+  </si>
+  <si>
+    <t>//2012.12.01.017/Islam</t>
+  </si>
+  <si>
+    <t>SMA/IPA/1997-06-17</t>
+  </si>
+  <si>
+    <t>Heri Susanto</t>
+  </si>
+  <si>
+    <t>//2012.12.01.018/Islam</t>
+  </si>
+  <si>
+    <t>Bagus Widodo</t>
+  </si>
+  <si>
+    <t>//2012.12.01.019/Islam</t>
+  </si>
+  <si>
+    <t>Aristiyo Budi</t>
+  </si>
+  <si>
+    <t>//2012.12.01.021/Islam</t>
+  </si>
+  <si>
+    <t>Eni Watiningsih</t>
+  </si>
+  <si>
+    <t>//2012.12.01.022/Islam</t>
+  </si>
+  <si>
+    <t>Suharini</t>
+  </si>
+  <si>
+    <t>//2012.12.01.024/Islam</t>
+  </si>
+  <si>
+    <t>Sofani</t>
+  </si>
+  <si>
+    <t>//2012.12.01.025/Islam</t>
+  </si>
+  <si>
+    <t>Slamet Triyoga</t>
+  </si>
+  <si>
+    <t>//2012.12.01.029/Islam</t>
+  </si>
+  <si>
+    <t>Arise Siswanto</t>
+  </si>
+  <si>
+    <t>//2012.12.01.031/Islam</t>
+  </si>
+  <si>
+    <t>Heru Setiawan</t>
+  </si>
+  <si>
+    <t>//2012.12.02.032/Islam</t>
+  </si>
+  <si>
+    <t>Kanang Suhartanto</t>
+  </si>
+  <si>
+    <t>//2012.12.04.034/Islam</t>
+  </si>
+  <si>
+    <t>Agus Tugiyono</t>
+  </si>
+  <si>
+    <t>//2012.12.04.035/Islam</t>
+  </si>
+  <si>
+    <t>Agus Salim</t>
+  </si>
+  <si>
+    <t>//2012.12.04.036/Islam</t>
+  </si>
+  <si>
+    <t>Nur Muh Attabik</t>
+  </si>
+  <si>
+    <t>//2012.12.04.037/Islam</t>
+  </si>
+  <si>
+    <t>Ihsan Zulkarnain</t>
+  </si>
+  <si>
+    <t>//2012.12.04.038/Islam</t>
+  </si>
+  <si>
+    <t>Heru Susmanto</t>
+  </si>
+  <si>
+    <t>//2012.12.04.039/Islam</t>
+  </si>
+  <si>
+    <t>Suharyanto</t>
+  </si>
+  <si>
+    <t>//2012.12.05.041/Islam</t>
+  </si>
+  <si>
+    <t>Wisnu Ardi</t>
+  </si>
+  <si>
+    <t>//2012.12.05.042/Islam</t>
+  </si>
+  <si>
+    <t>Agung Frediyanto</t>
+  </si>
+  <si>
+    <t>//2012.12.05.043/Islam</t>
+  </si>
+  <si>
+    <t>Dedy Rahmad Bahtiyar</t>
+  </si>
+  <si>
+    <t>//2012.12.07.044/Islam</t>
+  </si>
+  <si>
+    <t>Andri Bayu Suryatno</t>
+  </si>
+  <si>
+    <t>//2012.12.07.045/Islam</t>
+  </si>
+  <si>
+    <t>Sulis Wahyu Hendratiningsih</t>
+  </si>
+  <si>
+    <t>//2012.12.09.046/Islam</t>
+  </si>
+  <si>
+    <t>Margantoro Suryo Atmojo</t>
+  </si>
+  <si>
+    <t>//2012.12.10.048/Islam</t>
+  </si>
+  <si>
+    <t>Sumarlan</t>
+  </si>
+  <si>
+    <t>//2012.12.10.049/Islam</t>
+  </si>
+  <si>
+    <t>Wahyu Yuniarto</t>
+  </si>
+  <si>
+    <t>//2012.12.11.050/Islam</t>
+  </si>
+  <si>
+    <t>Jumadi</t>
+  </si>
+  <si>
+    <t>//2012.12.11.051/Islam</t>
+  </si>
+  <si>
+    <t>Marsudi</t>
+  </si>
+  <si>
+    <t>//2012.12.11.052/Islam</t>
+  </si>
+  <si>
+    <t>Andika Barun</t>
+  </si>
+  <si>
+    <t>//2012.12.11.054/Islam</t>
+  </si>
+  <si>
+    <t>Ngatiman</t>
+  </si>
+  <si>
+    <t>//2012.13.02.058/Islam</t>
+  </si>
+  <si>
+    <t>Indra Wahyudi</t>
+  </si>
+  <si>
+    <t>//2012.13.02.059/Islam</t>
+  </si>
+  <si>
+    <t>M Indriyanto</t>
+  </si>
+  <si>
+    <t>//2012.13.03.061/Islam</t>
+  </si>
+  <si>
+    <t>Iwan Setiawan S Pt</t>
+  </si>
+  <si>
+    <t>//2012.13.07.064/Islam</t>
+  </si>
+  <si>
+    <t>Sinta Widayati</t>
+  </si>
+  <si>
+    <t>//2012.13.09.065/Islam</t>
+  </si>
+  <si>
+    <t>Intan Nurlita Anisa</t>
+  </si>
+  <si>
+    <t>//2012.13.09.066/Islam</t>
+  </si>
+  <si>
+    <t>Yudhi Dwi Arifianto</t>
+  </si>
+  <si>
+    <t>//2012.13.10.068/Islam</t>
+  </si>
+  <si>
+    <t>Maghfiroh</t>
+  </si>
+  <si>
+    <t>//2012.13.11.071/Islam</t>
+  </si>
+  <si>
+    <t>Bagus Wahyono</t>
+  </si>
+  <si>
+    <t>//2012.13.11.073/Islam</t>
+  </si>
+  <si>
+    <t>David Nois Perdana</t>
+  </si>
+  <si>
+    <t>//2012.13.11.074/Islam</t>
+  </si>
+  <si>
+    <t>Nasikhin</t>
+  </si>
+  <si>
+    <t>//2012.14.09.078/Islam</t>
+  </si>
+  <si>
+    <t>Ferri Kurniawan</t>
+  </si>
+  <si>
+    <t>//2012.14.09.079/Islam</t>
+  </si>
+  <si>
+    <t>Surojo</t>
+  </si>
+  <si>
+    <t>//2012.14.09.080/Islam</t>
+  </si>
+  <si>
+    <t>Sutarno</t>
+  </si>
+  <si>
+    <t>//2012.14.09.083/Islam</t>
+  </si>
+  <si>
+    <t>Nur Endah Setyawati</t>
+  </si>
+  <si>
+    <t>//2012.15.03.086/Islam</t>
+  </si>
+  <si>
+    <t>Isnan Arif Pambudi</t>
+  </si>
+  <si>
+    <t>//2012.15.05.087/Islam</t>
+  </si>
+  <si>
+    <t>Mustaqim</t>
+  </si>
+  <si>
+    <t>//2012.15.05.088/Islam</t>
+  </si>
+  <si>
+    <t>Miftah Mafazi</t>
+  </si>
+  <si>
+    <t>//2012.15.10.094/Islam</t>
+  </si>
+  <si>
+    <t>Harnoko</t>
+  </si>
+  <si>
+    <t>//2012.15.11.096/Islam</t>
+  </si>
+  <si>
+    <t>Nur Cholish</t>
+  </si>
+  <si>
+    <t>//2012.15.11.097/Islam</t>
+  </si>
+  <si>
+    <t>Gumawan Nurdhianto</t>
+  </si>
+  <si>
+    <t>//2012.15.12.099/Islam</t>
+  </si>
+  <si>
+    <t>Mirza Gunawan</t>
+  </si>
+  <si>
+    <t>//2012.15.12.100/Islam</t>
+  </si>
+  <si>
+    <t>Febri Pratama</t>
+  </si>
+  <si>
+    <t>//2012.15.12.101/Islam</t>
+  </si>
+  <si>
+    <t>Harlan Buyung Nurdhianto</t>
+  </si>
+  <si>
+    <t>//2012.15.12.103/Islam</t>
+  </si>
+  <si>
+    <t>Reza Ahimsa Hendrianno</t>
+  </si>
+  <si>
+    <t>//2012.15.12.106/Islam</t>
+  </si>
+  <si>
+    <t>Sarjono</t>
+  </si>
+  <si>
+    <t>//2012.16.01.107/Islam</t>
+  </si>
+  <si>
+    <t>Rubiyanto</t>
+  </si>
+  <si>
+    <t>//2012.16.01.108/Islam</t>
+  </si>
+  <si>
+    <t>Andika Beny Setyawan</t>
+  </si>
+  <si>
+    <t>//2012.16.03.112/Islam</t>
+  </si>
+  <si>
+    <t>Ariyanto</t>
+  </si>
+  <si>
+    <t>//2012.16.07.115/Islam</t>
+  </si>
+  <si>
+    <t>Muhammad Khoirul Anam</t>
+  </si>
+  <si>
+    <t>//2012.16.07.118/Islam</t>
+  </si>
+  <si>
+    <t>Anor Riza Rudianto</t>
+  </si>
+  <si>
+    <t>//2012.16.10.119/Islam</t>
+  </si>
+  <si>
+    <t>Gunawan</t>
+  </si>
+  <si>
+    <t>//2012.16.12.120/Islam</t>
+  </si>
+  <si>
+    <t>Maryadi</t>
+  </si>
+  <si>
+    <t>//2012.17.01.122/Islam</t>
+  </si>
+  <si>
+    <t>M Irfan Meyanto</t>
+  </si>
+  <si>
+    <t>//2012.17.01.123/Islam</t>
+  </si>
+  <si>
+    <t>Hasnan Habib Al Fajar</t>
+  </si>
+  <si>
+    <t>//2012.17.08.125/Islam</t>
+  </si>
+  <si>
+    <t>Haryanto</t>
+  </si>
+  <si>
+    <t>//2012.17.09.127/Islam</t>
+  </si>
+  <si>
+    <t>Karindra Gatya Arzenna</t>
+  </si>
+  <si>
+    <t>//2012.17.09.131/Islam</t>
+  </si>
+  <si>
+    <t>Juni Bantu Pamungkas</t>
+  </si>
+  <si>
+    <t>//2012.17.09.132/Islam</t>
+  </si>
+  <si>
+    <t>Ifan Dwi Sanusi</t>
+  </si>
+  <si>
+    <t>//2012.17.09.134/Islam</t>
+  </si>
+  <si>
+    <t>Gustam Barnafi</t>
+  </si>
+  <si>
+    <t>//2012.17.09.137/Islam</t>
+  </si>
+  <si>
+    <t>Tri Dal Dhikri</t>
+  </si>
+  <si>
+    <t>//2012.17.09.138/Islam</t>
+  </si>
+  <si>
+    <t>Muhammad Rafiq</t>
+  </si>
+  <si>
+    <t>//2012.17.11.142/Islam</t>
+  </si>
+  <si>
+    <t>Buyung Candra Bahari</t>
+  </si>
+  <si>
+    <t>//2012.17.11.143/Islam</t>
+  </si>
+  <si>
+    <t>Yusak Nugroho</t>
+  </si>
+  <si>
+    <t>//2012.17.11.144/Islam</t>
+  </si>
+  <si>
+    <t>Hanik Kastuni</t>
+  </si>
+  <si>
+    <t>//2012.18.02.145/Islam</t>
+  </si>
+  <si>
+    <t>Fenty Anindita Nurnafiah</t>
+  </si>
+  <si>
+    <t>//2012.18.02.146/Islam</t>
+  </si>
+  <si>
+    <t>Taufik Hidayat</t>
+  </si>
+  <si>
+    <t>//2012.18.05.148/Islam</t>
+  </si>
+  <si>
+    <t>Dwi Novi Casyanto</t>
+  </si>
+  <si>
+    <t>//2012.18.08.151/Islam</t>
+  </si>
+  <si>
+    <t>Khoirur Rokhimin</t>
+  </si>
+  <si>
+    <t>//2012.18.08.153/Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Islakhuddin Rais </t>
+  </si>
+  <si>
+    <t>//2012.19.01.154/Islam</t>
+  </si>
+  <si>
+    <t>Buchori</t>
+  </si>
+  <si>
+    <t>//2012.19.01.156/Islam</t>
+  </si>
+  <si>
+    <t>Dita Yuliana</t>
+  </si>
+  <si>
+    <t>//2012.19.01.159/Islam</t>
+  </si>
+  <si>
+    <t>Ermalia Nur Hasyimi</t>
+  </si>
+  <si>
+    <t>//2012.19.01.160/Islam</t>
+  </si>
+  <si>
+    <t>Pardiman</t>
+  </si>
+  <si>
+    <t>//2012.20.01.161/Islam</t>
+  </si>
+  <si>
+    <t>Muhammad Misbakhudin</t>
+  </si>
+  <si>
+    <t>//2012.20.01.162/Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doni Anggara Putra </t>
+  </si>
+  <si>
+    <t>//2012.20.01.163/Islam</t>
+  </si>
+  <si>
+    <t>Hermawan</t>
+  </si>
+  <si>
+    <t>//2012.20.02.000/Islam</t>
+  </si>
+  <si>
+    <t>YUSUF PURNAMA</t>
+  </si>
+  <si>
+    <t>//1000/Islam</t>
+  </si>
+  <si>
+    <t>AKHMAD RIFAI</t>
+  </si>
+  <si>
+    <t>//1001/Islam</t>
+  </si>
+  <si>
+    <t>BAGUS ISMAIL</t>
+  </si>
+  <si>
+    <t>//1002/Islam</t>
+  </si>
+  <si>
+    <t>ABDUL ROCHMAN</t>
+  </si>
+  <si>
+    <t>//1003/Islam</t>
+  </si>
+  <si>
+    <t>Jamiyati</t>
+  </si>
+  <si>
+    <t>//2000/Islam</t>
+  </si>
+  <si>
+    <t>Febri Riyanti</t>
+  </si>
+  <si>
+    <t>//2001/Islam</t>
+  </si>
+  <si>
+    <t>Rini Widyastuti</t>
+  </si>
+  <si>
+    <t>//2002/Islam</t>
+  </si>
+  <si>
+    <t>Ery Safitri</t>
+  </si>
+  <si>
+    <t>//2003/Islam</t>
+  </si>
+  <si>
+    <t>Dyah Ayu Pramesti</t>
+  </si>
+  <si>
+    <t>//2004/Islam</t>
+  </si>
+  <si>
+    <t>Tri Mulatningsih</t>
+  </si>
+  <si>
+    <t>//2005/Islam</t>
+  </si>
+  <si>
+    <t>Budi Lestari</t>
+  </si>
+  <si>
+    <t>//2006/Islam</t>
+  </si>
+  <si>
+    <t>Emiyati</t>
+  </si>
+  <si>
+    <t>//2007/Islam</t>
+  </si>
+  <si>
+    <t>Hanifah</t>
+  </si>
+  <si>
+    <t>//2008/Islam</t>
+  </si>
+  <si>
+    <t>Eny Indriyati</t>
+  </si>
+  <si>
+    <t>//2009/Islam</t>
+  </si>
+  <si>
+    <t>Devi Wulandari</t>
+  </si>
+  <si>
+    <t>//2010/Islam</t>
+  </si>
+  <si>
+    <t>Zuniati Agnuril Sholikah</t>
+  </si>
+  <si>
+    <t>//2011/Islam</t>
+  </si>
+  <si>
+    <t>Diah Ayu Novita Andari</t>
+  </si>
+  <si>
+    <t>//2012/Islam</t>
+  </si>
+  <si>
+    <t>Putri Amalia Dewi</t>
+  </si>
+  <si>
+    <t>//2013/Islam</t>
+  </si>
+  <si>
+    <t>Ninda Ayuni</t>
+  </si>
+  <si>
+    <t>//2014/Islam</t>
+  </si>
+  <si>
+    <t>RIDWAN RAMADHAN</t>
+  </si>
+  <si>
+    <t>//3000/Islam</t>
+  </si>
+  <si>
+    <t>arsyad</t>
+  </si>
+  <si>
+    <t>///Islam</t>
+  </si>
+  <si>
+    <t>meyd</t>
+  </si>
+  <si>
+    <t>aldo</t>
+  </si>
+  <si>
+    <t>fauzanj</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>kesv</t>
+  </si>
+  <si>
+    <t>donal</t>
+  </si>
+  <si>
+    <t>kemi</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>Rouf Rozikin</t>
+  </si>
+  <si>
+    <t>GUNAWA</t>
+  </si>
+  <si>
+    <t>EDO RIZKI P</t>
+  </si>
+  <si>
+    <t>NOVRI ERWIN</t>
+  </si>
+  <si>
+    <t>LELY TRI Y</t>
+  </si>
+  <si>
+    <t>FATHONI HIDAYA</t>
+  </si>
+  <si>
+    <t>MUKLIS SAPUTRA</t>
+  </si>
+  <si>
+    <t>DANANG ANJAR H</t>
+  </si>
+  <si>
+    <t>MUH FAIS ROSAD</t>
+  </si>
+  <si>
+    <t>ADEN SABDA UTAM</t>
+  </si>
+  <si>
+    <t>AHMAD AFIFUDIN</t>
+  </si>
+  <si>
+    <t>AISYAH D S</t>
+  </si>
+  <si>
+    <t>CITRA A N F</t>
+  </si>
+  <si>
+    <t>CLARA F</t>
+  </si>
+  <si>
+    <t>NAUFAL I</t>
+  </si>
+  <si>
+    <t>NASMAL A</t>
+  </si>
+  <si>
+    <t>Ihsan Firdaus</t>
   </si>
   <si>
     <t>Administrasi Personalia</t>
   </si>
   <si>
-    <t>SMP/-/1998-10-06</t>
-  </si>
-  <si>
-    <t>/</t>
+    <t>Arimbi Himsa L</t>
+  </si>
+  <si>
+    <t>Luki Meiramah</t>
+  </si>
+  <si>
+    <t>nabilla elma L</t>
+  </si>
+  <si>
+    <t>Dai Yang Shidiq</t>
+  </si>
+  <si>
+    <t>M Yanuar Nurez</t>
+  </si>
+  <si>
+    <t>Eri Afriadi</t>
+  </si>
+  <si>
+    <t>Jumawan</t>
+  </si>
+  <si>
+    <t>M Ayrton Sena</t>
+  </si>
+  <si>
+    <t>Sirullah Amand</t>
+  </si>
+  <si>
+    <t>Nuryanto</t>
+  </si>
+  <si>
+    <t>Fuad Muhammad H</t>
+  </si>
+  <si>
+    <t>Nasis Firman</t>
+  </si>
+  <si>
+    <t>Septian Dhaniar</t>
+  </si>
+  <si>
+    <t>M  Hasan Nur</t>
+  </si>
+  <si>
+    <t>Ariyanti Isnaii</t>
+  </si>
+  <si>
+    <t>Lintang Fasha</t>
+  </si>
+  <si>
+    <t>Fani Adiati</t>
+  </si>
+  <si>
+    <t>Pradita Ferani</t>
+  </si>
+  <si>
+    <t>Burhanu Sultan Ramadan</t>
+  </si>
+  <si>
+    <t>Darit/2001-08-09/123/Islam</t>
+  </si>
+  <si>
+    <t>ratnasari</t>
+  </si>
+  <si>
+    <t>Darit/2001-08-09/1234/Islam</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
   </si>
 </sst>
 </file>
@@ -410,7 +1304,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,12 +1312,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -448,57 +1342,4166 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" t="s">
+        <v>180</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
+        <v>226</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" t="s">
+        <v>236</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" t="s">
+        <v>240</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" t="s">
+        <v>244</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>253</v>
+      </c>
+      <c r="C116" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>255</v>
+      </c>
+      <c r="C117" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" t="s">
+        <v>260</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>267</v>
+      </c>
+      <c r="C123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" t="s">
+        <v>21</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" t="s">
+        <v>268</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" t="s">
+        <v>21</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" t="s">
+        <v>268</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" t="s">
+        <v>21</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s">
+        <v>21</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" t="s">
+        <v>268</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" t="s">
+        <v>21</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" t="s">
+        <v>21</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
+        <v>277</v>
+      </c>
+      <c r="C132" t="s">
+        <v>268</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" t="s">
+        <v>21</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>278</v>
+      </c>
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" t="s">
+        <v>268</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" t="s">
+        <v>21</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" t="s">
+        <v>21</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" t="s">
+        <v>268</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137" t="s">
+        <v>24</v>
+      </c>
+      <c r="H137" t="s">
+        <v>21</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
+        <v>283</v>
+      </c>
+      <c r="C138" t="s">
+        <v>268</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s">
+        <v>21</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" t="s">
+        <v>268</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" t="s">
+        <v>21</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140" t="s">
+        <v>285</v>
+      </c>
+      <c r="C140" t="s">
+        <v>268</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" t="s">
+        <v>21</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>286</v>
+      </c>
+      <c r="C141" t="s">
+        <v>268</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" t="s">
+        <v>21</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" t="s">
+        <v>268</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" t="s">
+        <v>21</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" t="s">
+        <v>21</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" t="s">
+        <v>268</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" t="s">
+        <v>268</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" t="s">
+        <v>21</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" t="s">
+        <v>268</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" t="s">
+        <v>21</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s">
+        <v>268</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" t="s">
+        <v>21</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" t="s">
+        <v>268</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" t="s">
+        <v>21</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" t="s">
+        <v>268</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" t="s">
+        <v>21</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" t="s">
+        <v>268</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" t="s">
+        <v>21</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151" t="s">
+        <v>24</v>
+      </c>
+      <c r="H151" t="s">
+        <v>21</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" t="s">
+        <v>268</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" t="s">
+        <v>21</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
+        <v>299</v>
+      </c>
+      <c r="C153" t="s">
+        <v>268</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153" t="s">
+        <v>24</v>
+      </c>
+      <c r="H153" t="s">
+        <v>21</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" t="s">
+        <v>268</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" t="s">
+        <v>21</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" t="s">
+        <v>268</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" t="s">
+        <v>21</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156" t="s">
+        <v>302</v>
+      </c>
+      <c r="C156" t="s">
+        <v>268</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156" t="s">
+        <v>24</v>
+      </c>
+      <c r="H156" t="s">
+        <v>21</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>303</v>
+      </c>
+      <c r="C157" t="s">
+        <v>268</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157" t="s">
+        <v>24</v>
+      </c>
+      <c r="H157" t="s">
+        <v>21</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158" t="s">
+        <v>304</v>
+      </c>
+      <c r="C158" t="s">
+        <v>268</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" t="s">
+        <v>21</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159" t="s">
+        <v>305</v>
+      </c>
+      <c r="C159" t="s">
+        <v>268</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159" t="s">
+        <v>24</v>
+      </c>
+      <c r="H159" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160" t="s">
+        <v>306</v>
+      </c>
+      <c r="C160" t="s">
+        <v>268</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" t="s">
+        <v>21</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
+        <v>307</v>
+      </c>
+      <c r="C161" t="s">
+        <v>268</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" t="s">
+        <v>21</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>308</v>
+      </c>
+      <c r="C162" t="s">
+        <v>268</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162" t="s">
+        <v>24</v>
+      </c>
+      <c r="H162" t="s">
+        <v>21</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>309</v>
+      </c>
+      <c r="C163" t="s">
+        <v>268</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" t="s">
+        <v>21</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" t="s">
+        <v>268</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164" t="s">
+        <v>24</v>
+      </c>
+      <c r="H164" t="s">
+        <v>21</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" t="s">
+        <v>268</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165" t="s">
+        <v>24</v>
+      </c>
+      <c r="H165" t="s">
+        <v>21</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166" t="s">
+        <v>311</v>
+      </c>
+      <c r="C166" t="s">
+        <v>268</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" t="s">
+        <v>21</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167" t="s">
+        <v>312</v>
+      </c>
+      <c r="C167" t="s">
+        <v>268</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167" t="s">
+        <v>24</v>
+      </c>
+      <c r="H167" t="s">
+        <v>21</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168" t="s">
+        <v>313</v>
+      </c>
+      <c r="C168" t="s">
+        <v>314</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" t="s">
+        <v>21</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169" t="s">
+        <v>315</v>
+      </c>
+      <c r="C169" t="s">
+        <v>316</v>
+      </c>
+      <c r="D169" t="s">
+        <v>317</v>
+      </c>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169" t="s">
+        <v>24</v>
+      </c>
+      <c r="H169" t="s">
+        <v>21</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report Nominatif.xlsx
+++ b/assets/excel/Report Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
   <si>
     <t>REPORT NOMINATIF</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Abdul Latief Baedhowi</t>
   </si>
   <si>
-    <t>Palembang/1982-06-08/2012.12.01.002/Islam</t>
+    <t>//2012.12.01.002/Islam</t>
   </si>
   <si>
     <t>Laki-laki</t>
@@ -65,7 +65,7 @@
     <t>SMA/IPA/2001-03-14</t>
   </si>
   <si>
-    <t>jakarta pusat/082180712764</t>
+    <t>/</t>
   </si>
   <si>
     <t>Aktif</t>
@@ -80,15 +80,15 @@
     <t>S1/Ekonomi/2011-06-21</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Iwan Setiyawan</t>
   </si>
   <si>
     <t>//2012.12.01.004/Islam</t>
   </si>
   <si>
+    <t>Direktur Utama</t>
+  </si>
+  <si>
     <t>//</t>
   </si>
   <si>
@@ -954,21 +954,6 @@
   </si>
   <si>
     <t>Pradita Ferani</t>
-  </si>
-  <si>
-    <t>Burhanu Sultan Ramadan</t>
-  </si>
-  <si>
-    <t>Darit/2001-08-09/123/Islam</t>
-  </si>
-  <si>
-    <t>ratnasari</t>
-  </si>
-  <si>
-    <t>Darit/2001-08-09/1234/Islam</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1289,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1394,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -1405,21 +1390,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -1444,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -1469,7 +1458,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -1494,7 +1483,7 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1519,7 +1508,7 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1544,7 +1533,7 @@
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -1569,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -1594,7 +1583,7 @@
         <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -1619,7 +1608,7 @@
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1644,7 +1633,7 @@
         <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -1669,7 +1658,7 @@
         <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -1694,7 +1683,7 @@
         <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -1719,7 +1708,7 @@
         <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1744,7 +1733,7 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1769,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -1794,7 +1783,7 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -1819,7 +1808,7 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1844,7 +1833,7 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1869,7 +1858,7 @@
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1894,7 +1883,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1919,7 +1908,7 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1944,7 +1933,7 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1969,7 +1958,7 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1994,7 +1983,7 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -2019,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -2044,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -2069,7 +2058,7 @@
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -2094,7 +2083,7 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -2119,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -2144,7 +2133,7 @@
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -2169,7 +2158,7 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -2194,7 +2183,7 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -2219,7 +2208,7 @@
         <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -2244,7 +2233,7 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -2269,7 +2258,7 @@
         <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -2294,7 +2283,7 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -2319,7 +2308,7 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -2344,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -2369,7 +2358,7 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -2394,7 +2383,7 @@
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -2419,7 +2408,7 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -2444,7 +2433,7 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -2469,7 +2458,7 @@
         <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -2494,7 +2483,7 @@
         <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -2519,7 +2508,7 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -2544,7 +2533,7 @@
         <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I51" t="s">
         <v>17</v>
@@ -2569,7 +2558,7 @@
         <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
         <v>17</v>
@@ -2594,7 +2583,7 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
@@ -2619,7 +2608,7 @@
         <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
         <v>17</v>
@@ -2644,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
@@ -2669,7 +2658,7 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
@@ -2694,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
@@ -2719,7 +2708,7 @@
         <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -2744,7 +2733,7 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
         <v>17</v>
@@ -2769,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
@@ -2794,7 +2783,7 @@
         <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I61" t="s">
         <v>17</v>
@@ -2819,7 +2808,7 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
@@ -2844,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -2869,7 +2858,7 @@
         <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -2894,7 +2883,7 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -2919,7 +2908,7 @@
         <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -2944,7 +2933,7 @@
         <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -2969,7 +2958,7 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -2994,7 +2983,7 @@
         <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -3019,7 +3008,7 @@
         <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -3044,7 +3033,7 @@
         <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -3069,7 +3058,7 @@
         <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
@@ -3094,7 +3083,7 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -3119,7 +3108,7 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -3144,7 +3133,7 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -3169,7 +3158,7 @@
         <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -3194,7 +3183,7 @@
         <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -3219,7 +3208,7 @@
         <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -3244,7 +3233,7 @@
         <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -3269,7 +3258,7 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -3294,7 +3283,7 @@
         <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -3319,7 +3308,7 @@
         <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -3344,7 +3333,7 @@
         <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -3369,7 +3358,7 @@
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -3394,7 +3383,7 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -3419,7 +3408,7 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -3444,7 +3433,7 @@
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -3469,7 +3458,7 @@
         <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -3494,7 +3483,7 @@
         <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -3519,7 +3508,7 @@
         <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -3544,7 +3533,7 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -3569,7 +3558,7 @@
         <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -3594,7 +3583,7 @@
         <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I93" t="s">
         <v>17</v>
@@ -3619,7 +3608,7 @@
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -3644,7 +3633,7 @@
         <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -3669,7 +3658,7 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -3694,7 +3683,7 @@
         <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -3719,7 +3708,7 @@
         <v>24</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -3744,7 +3733,7 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -3769,7 +3758,7 @@
         <v>24</v>
       </c>
       <c r="H100" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
@@ -3794,7 +3783,7 @@
         <v>24</v>
       </c>
       <c r="H101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -3819,7 +3808,7 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I102" t="s">
         <v>17</v>
@@ -3844,7 +3833,7 @@
         <v>24</v>
       </c>
       <c r="H103" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -3869,7 +3858,7 @@
         <v>24</v>
       </c>
       <c r="H104" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -3894,7 +3883,7 @@
         <v>24</v>
       </c>
       <c r="H105" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -3919,7 +3908,7 @@
         <v>24</v>
       </c>
       <c r="H106" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -3944,7 +3933,7 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -3969,7 +3958,7 @@
         <v>24</v>
       </c>
       <c r="H108" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -3994,7 +3983,7 @@
         <v>24</v>
       </c>
       <c r="H109" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -4019,7 +4008,7 @@
         <v>24</v>
       </c>
       <c r="H110" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
@@ -4044,7 +4033,7 @@
         <v>24</v>
       </c>
       <c r="H111" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -4069,7 +4058,7 @@
         <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -4094,7 +4083,7 @@
         <v>24</v>
       </c>
       <c r="H113" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -4119,7 +4108,7 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -4144,7 +4133,7 @@
         <v>24</v>
       </c>
       <c r="H115" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I115" t="s">
         <v>17</v>
@@ -4169,7 +4158,7 @@
         <v>24</v>
       </c>
       <c r="H116" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I116" t="s">
         <v>17</v>
@@ -4194,7 +4183,7 @@
         <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I117" t="s">
         <v>17</v>
@@ -4219,7 +4208,7 @@
         <v>24</v>
       </c>
       <c r="H118" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -4244,7 +4233,7 @@
         <v>24</v>
       </c>
       <c r="H119" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -4269,7 +4258,7 @@
         <v>24</v>
       </c>
       <c r="H120" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -4294,7 +4283,7 @@
         <v>24</v>
       </c>
       <c r="H121" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -4319,7 +4308,7 @@
         <v>24</v>
       </c>
       <c r="H122" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -4344,7 +4333,7 @@
         <v>24</v>
       </c>
       <c r="H123" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -4369,7 +4358,7 @@
         <v>24</v>
       </c>
       <c r="H124" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -4394,7 +4383,7 @@
         <v>24</v>
       </c>
       <c r="H125" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -4419,7 +4408,7 @@
         <v>24</v>
       </c>
       <c r="H126" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -4444,7 +4433,7 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
@@ -4469,7 +4458,7 @@
         <v>24</v>
       </c>
       <c r="H128" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I128" t="s">
         <v>17</v>
@@ -4494,7 +4483,7 @@
         <v>24</v>
       </c>
       <c r="H129" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -4519,7 +4508,7 @@
         <v>24</v>
       </c>
       <c r="H130" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -4544,7 +4533,7 @@
         <v>24</v>
       </c>
       <c r="H131" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -4569,7 +4558,7 @@
         <v>24</v>
       </c>
       <c r="H132" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I132" t="s">
         <v>17</v>
@@ -4594,7 +4583,7 @@
         <v>24</v>
       </c>
       <c r="H133" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -4619,7 +4608,7 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I134" t="s">
         <v>17</v>
@@ -4644,7 +4633,7 @@
         <v>24</v>
       </c>
       <c r="H135" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -4669,7 +4658,7 @@
         <v>24</v>
       </c>
       <c r="H136" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -4694,7 +4683,7 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I137" t="s">
         <v>17</v>
@@ -4719,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="H138" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I138" t="s">
         <v>17</v>
@@ -4744,7 +4733,7 @@
         <v>24</v>
       </c>
       <c r="H139" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
@@ -4769,7 +4758,7 @@
         <v>24</v>
       </c>
       <c r="H140" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -4794,7 +4783,7 @@
         <v>24</v>
       </c>
       <c r="H141" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -4819,7 +4808,7 @@
         <v>24</v>
       </c>
       <c r="H142" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -4844,7 +4833,7 @@
         <v>24</v>
       </c>
       <c r="H143" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -4869,7 +4858,7 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -4894,7 +4883,7 @@
         <v>24</v>
       </c>
       <c r="H145" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -4919,7 +4908,7 @@
         <v>24</v>
       </c>
       <c r="H146" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -4944,7 +4933,7 @@
         <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I147" t="s">
         <v>17</v>
@@ -4973,7 +4962,7 @@
         <v>24</v>
       </c>
       <c r="H148" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I148" t="s">
         <v>17</v>
@@ -4998,7 +4987,7 @@
         <v>24</v>
       </c>
       <c r="H149" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -5023,7 +5012,7 @@
         <v>24</v>
       </c>
       <c r="H150" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -5048,7 +5037,7 @@
         <v>24</v>
       </c>
       <c r="H151" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I151" t="s">
         <v>17</v>
@@ -5073,7 +5062,7 @@
         <v>24</v>
       </c>
       <c r="H152" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I152" t="s">
         <v>17</v>
@@ -5098,7 +5087,7 @@
         <v>24</v>
       </c>
       <c r="H153" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I153" t="s">
         <v>17</v>
@@ -5123,7 +5112,7 @@
         <v>24</v>
       </c>
       <c r="H154" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -5148,7 +5137,7 @@
         <v>24</v>
       </c>
       <c r="H155" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I155" t="s">
         <v>17</v>
@@ -5173,7 +5162,7 @@
         <v>24</v>
       </c>
       <c r="H156" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -5198,7 +5187,7 @@
         <v>24</v>
       </c>
       <c r="H157" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I157" t="s">
         <v>17</v>
@@ -5223,7 +5212,7 @@
         <v>24</v>
       </c>
       <c r="H158" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I158" t="s">
         <v>17</v>
@@ -5248,7 +5237,7 @@
         <v>24</v>
       </c>
       <c r="H159" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I159" t="s">
         <v>17</v>
@@ -5273,7 +5262,7 @@
         <v>24</v>
       </c>
       <c r="H160" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
@@ -5298,7 +5287,7 @@
         <v>24</v>
       </c>
       <c r="H161" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -5323,7 +5312,7 @@
         <v>24</v>
       </c>
       <c r="H162" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I162" t="s">
         <v>17</v>
@@ -5348,7 +5337,7 @@
         <v>24</v>
       </c>
       <c r="H163" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I163" t="s">
         <v>17</v>
@@ -5373,7 +5362,7 @@
         <v>24</v>
       </c>
       <c r="H164" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I164" t="s">
         <v>17</v>
@@ -5398,7 +5387,7 @@
         <v>24</v>
       </c>
       <c r="H165" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -5423,7 +5412,7 @@
         <v>24</v>
       </c>
       <c r="H166" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -5448,59 +5437,9 @@
         <v>24</v>
       </c>
       <c r="H167" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I167" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168">
-        <v>165</v>
-      </c>
-      <c r="B168" t="s">
-        <v>313</v>
-      </c>
-      <c r="C168" t="s">
-        <v>314</v>
-      </c>
-      <c r="D168" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
-      <c r="H168" t="s">
-        <v>21</v>
-      </c>
-      <c r="I168" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>315</v>
-      </c>
-      <c r="C169" t="s">
-        <v>316</v>
-      </c>
-      <c r="D169" t="s">
-        <v>317</v>
-      </c>
-      <c r="E169"/>
-      <c r="F169"/>
-      <c r="G169" t="s">
-        <v>24</v>
-      </c>
-      <c r="H169" t="s">
-        <v>21</v>
-      </c>
-      <c r="I169" t="s">
         <v>17</v>
       </c>
     </row>

--- a/assets/excel/Report Nominatif.xlsx
+++ b/assets/excel/Report Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
   <si>
     <t>REPORT NOMINATIF</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>//2012.12.01.003/Islam</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
   <si>
     <t>S1/Ekonomi/2011-06-21</t>
@@ -1388,13 +1391,17 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -1405,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1416,10 +1423,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -1430,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1441,10 +1448,10 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -1455,10 +1462,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1466,10 +1473,10 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -1480,10 +1487,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1491,10 +1498,10 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1505,10 +1512,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1516,10 +1523,10 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1530,10 +1537,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1541,10 +1548,10 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -1555,10 +1562,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1566,10 +1573,10 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -1580,10 +1587,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1591,10 +1598,10 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -1605,10 +1612,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1616,10 +1623,10 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1630,10 +1637,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1641,10 +1648,10 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -1655,10 +1662,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1666,10 +1673,10 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -1680,10 +1687,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1691,10 +1698,10 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -1705,10 +1712,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1716,10 +1723,10 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1730,10 +1737,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1741,10 +1748,10 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1755,10 +1762,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1766,10 +1773,10 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -1780,10 +1787,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1791,10 +1798,10 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -1805,10 +1812,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1816,10 +1823,10 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1830,10 +1837,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1841,10 +1848,10 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1855,10 +1862,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1866,10 +1873,10 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1880,10 +1887,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1891,10 +1898,10 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1905,10 +1912,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1916,10 +1923,10 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1930,10 +1937,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1941,10 +1948,10 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1955,10 +1962,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1966,10 +1973,10 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1980,10 +1987,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1991,10 +1998,10 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -2005,10 +2012,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -2016,10 +2023,10 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -2030,10 +2037,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -2041,10 +2048,10 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -2055,10 +2062,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -2066,10 +2073,10 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -2080,10 +2087,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -2091,10 +2098,10 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -2105,10 +2112,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -2116,10 +2123,10 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -2130,10 +2137,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -2141,10 +2148,10 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -2155,10 +2162,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -2166,10 +2173,10 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -2180,10 +2187,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2191,10 +2198,10 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -2205,10 +2212,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2216,10 +2223,10 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -2230,10 +2237,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2241,10 +2248,10 @@
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -2255,10 +2262,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2266,10 +2273,10 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -2280,10 +2287,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2291,10 +2298,10 @@
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -2305,10 +2312,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2316,10 +2323,10 @@
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -2330,10 +2337,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2341,10 +2348,10 @@
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -2355,10 +2362,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2366,10 +2373,10 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -2380,10 +2387,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2391,10 +2398,10 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -2405,10 +2412,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2416,10 +2423,10 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -2430,10 +2437,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2441,10 +2448,10 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -2455,10 +2462,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2466,10 +2473,10 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -2480,10 +2487,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2491,10 +2498,10 @@
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -2505,10 +2512,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2516,10 +2523,10 @@
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -2530,10 +2537,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2541,10 +2548,10 @@
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
         <v>17</v>
@@ -2555,10 +2562,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -2566,10 +2573,10 @@
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s">
         <v>17</v>
@@ -2580,10 +2587,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -2591,10 +2598,10 @@
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
@@ -2605,10 +2612,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2616,10 +2623,10 @@
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
         <v>17</v>
@@ -2630,10 +2637,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2641,10 +2648,10 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
@@ -2655,10 +2662,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2666,10 +2673,10 @@
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
@@ -2680,10 +2687,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2691,10 +2698,10 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
@@ -2705,10 +2712,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2716,10 +2723,10 @@
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -2730,10 +2737,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2741,10 +2748,10 @@
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
         <v>17</v>
@@ -2755,10 +2762,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2766,10 +2773,10 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
@@ -2780,10 +2787,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2791,10 +2798,10 @@
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s">
         <v>17</v>
@@ -2805,10 +2812,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2816,10 +2823,10 @@
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
@@ -2830,10 +2837,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -2841,10 +2848,10 @@
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -2855,10 +2862,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -2866,10 +2873,10 @@
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -2880,10 +2887,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2891,10 +2898,10 @@
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -2905,10 +2912,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2916,10 +2923,10 @@
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -2930,10 +2937,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2941,10 +2948,10 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -2955,10 +2962,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2966,10 +2973,10 @@
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -2980,10 +2987,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -2991,10 +2998,10 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -3005,10 +3012,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3016,10 +3023,10 @@
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -3030,10 +3037,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3041,10 +3048,10 @@
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -3055,10 +3062,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3066,10 +3073,10 @@
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
@@ -3080,10 +3087,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3091,10 +3098,10 @@
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -3105,10 +3112,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3116,10 +3123,10 @@
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -3130,10 +3137,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3141,10 +3148,10 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -3155,10 +3162,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3166,10 +3173,10 @@
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -3180,10 +3187,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -3191,10 +3198,10 @@
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -3205,10 +3212,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -3216,10 +3223,10 @@
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -3230,10 +3237,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -3241,10 +3248,10 @@
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -3255,10 +3262,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3266,10 +3273,10 @@
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -3280,10 +3287,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3291,10 +3298,10 @@
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -3305,10 +3312,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3316,10 +3323,10 @@
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -3330,10 +3337,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3341,10 +3348,10 @@
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -3355,10 +3362,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3366,10 +3373,10 @@
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -3380,10 +3387,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3391,10 +3398,10 @@
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -3405,10 +3412,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3416,10 +3423,10 @@
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -3430,10 +3437,10 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3441,10 +3448,10 @@
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -3455,10 +3462,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3466,10 +3473,10 @@
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -3480,10 +3487,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3491,10 +3498,10 @@
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -3505,10 +3512,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3516,10 +3523,10 @@
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -3530,10 +3537,10 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -3541,10 +3548,10 @@
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -3555,10 +3562,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -3566,10 +3573,10 @@
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -3580,10 +3587,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -3591,10 +3598,10 @@
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I93" t="s">
         <v>17</v>
@@ -3605,10 +3612,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -3616,10 +3623,10 @@
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -3630,10 +3637,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -3641,10 +3648,10 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -3655,10 +3662,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3666,10 +3673,10 @@
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -3680,10 +3687,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3691,10 +3698,10 @@
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -3705,10 +3712,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -3716,10 +3723,10 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -3730,10 +3737,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -3741,10 +3748,10 @@
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -3755,10 +3762,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -3766,10 +3773,10 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
@@ -3780,10 +3787,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -3791,10 +3798,10 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -3805,10 +3812,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -3816,10 +3823,10 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I102" t="s">
         <v>17</v>
@@ -3830,10 +3837,10 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -3841,10 +3848,10 @@
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -3855,10 +3862,10 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3866,10 +3873,10 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -3880,10 +3887,10 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -3891,10 +3898,10 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -3905,10 +3912,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -3916,10 +3923,10 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -3930,10 +3937,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -3941,10 +3948,10 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -3955,10 +3962,10 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -3966,10 +3973,10 @@
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -3980,10 +3987,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -3991,10 +3998,10 @@
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -4005,10 +4012,10 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -4016,10 +4023,10 @@
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
@@ -4030,10 +4037,10 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -4041,10 +4048,10 @@
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -4055,10 +4062,10 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -4066,10 +4073,10 @@
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -4080,10 +4087,10 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -4091,10 +4098,10 @@
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -4105,10 +4112,10 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -4116,10 +4123,10 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -4130,10 +4137,10 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -4141,10 +4148,10 @@
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I115" t="s">
         <v>17</v>
@@ -4155,10 +4162,10 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -4166,10 +4173,10 @@
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I116" t="s">
         <v>17</v>
@@ -4180,10 +4187,10 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -4191,10 +4198,10 @@
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I117" t="s">
         <v>17</v>
@@ -4205,10 +4212,10 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
@@ -4216,10 +4223,10 @@
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -4230,10 +4237,10 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -4241,10 +4248,10 @@
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -4255,10 +4262,10 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -4266,10 +4273,10 @@
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -4280,10 +4287,10 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -4291,10 +4298,10 @@
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H121" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -4305,10 +4312,10 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -4316,10 +4323,10 @@
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -4330,10 +4337,10 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -4341,10 +4348,10 @@
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -4355,10 +4362,10 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" t="s">
         <v>269</v>
-      </c>
-      <c r="C124" t="s">
-        <v>268</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -4366,10 +4373,10 @@
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -4380,10 +4387,10 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -4391,10 +4398,10 @@
       <c r="E125"/>
       <c r="F125"/>
       <c r="G125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -4405,10 +4412,10 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -4416,10 +4423,10 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -4430,10 +4437,10 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -4441,10 +4448,10 @@
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
@@ -4455,10 +4462,10 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -4466,10 +4473,10 @@
       <c r="E128"/>
       <c r="F128"/>
       <c r="G128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I128" t="s">
         <v>17</v>
@@ -4480,10 +4487,10 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C129" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -4491,10 +4498,10 @@
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -4505,10 +4512,10 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -4516,10 +4523,10 @@
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -4530,10 +4537,10 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -4541,10 +4548,10 @@
       <c r="E131"/>
       <c r="F131"/>
       <c r="G131" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -4555,10 +4562,10 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -4566,10 +4573,10 @@
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H132" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I132" t="s">
         <v>17</v>
@@ -4580,10 +4587,10 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -4591,10 +4598,10 @@
       <c r="E133"/>
       <c r="F133"/>
       <c r="G133" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -4605,10 +4612,10 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -4616,10 +4623,10 @@
       <c r="E134"/>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H134" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I134" t="s">
         <v>17</v>
@@ -4630,10 +4637,10 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
@@ -4641,10 +4648,10 @@
       <c r="E135"/>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -4655,10 +4662,10 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -4666,10 +4673,10 @@
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H136" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -4680,10 +4687,10 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -4691,10 +4698,10 @@
       <c r="E137"/>
       <c r="F137"/>
       <c r="G137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I137" t="s">
         <v>17</v>
@@ -4705,10 +4712,10 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -4716,10 +4723,10 @@
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H138" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I138" t="s">
         <v>17</v>
@@ -4730,10 +4737,10 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -4741,10 +4748,10 @@
       <c r="E139"/>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
@@ -4755,10 +4762,10 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -4766,10 +4773,10 @@
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -4780,10 +4787,10 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C141" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -4791,10 +4798,10 @@
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -4805,10 +4812,10 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -4816,10 +4823,10 @@
       <c r="E142"/>
       <c r="F142"/>
       <c r="G142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -4830,10 +4837,10 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -4841,10 +4848,10 @@
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -4855,10 +4862,10 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -4866,10 +4873,10 @@
       <c r="E144"/>
       <c r="F144"/>
       <c r="G144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -4880,10 +4887,10 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -4891,10 +4898,10 @@
       <c r="E145"/>
       <c r="F145"/>
       <c r="G145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -4905,10 +4912,10 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -4916,10 +4923,10 @@
       <c r="E146"/>
       <c r="F146"/>
       <c r="G146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H146" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -4930,10 +4937,10 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
@@ -4941,10 +4948,10 @@
       <c r="E147"/>
       <c r="F147"/>
       <c r="G147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I147" t="s">
         <v>17</v>
@@ -4955,25 +4962,25 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I148" t="s">
         <v>17</v>
@@ -4984,10 +4991,10 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -4995,10 +5002,10 @@
       <c r="E149"/>
       <c r="F149"/>
       <c r="G149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H149" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -5009,10 +5016,10 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -5020,10 +5027,10 @@
       <c r="E150"/>
       <c r="F150"/>
       <c r="G150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H150" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -5034,10 +5041,10 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -5045,10 +5052,10 @@
       <c r="E151"/>
       <c r="F151"/>
       <c r="G151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I151" t="s">
         <v>17</v>
@@ -5059,10 +5066,10 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
@@ -5070,10 +5077,10 @@
       <c r="E152"/>
       <c r="F152"/>
       <c r="G152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H152" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I152" t="s">
         <v>17</v>
@@ -5084,10 +5091,10 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
@@ -5095,10 +5102,10 @@
       <c r="E153"/>
       <c r="F153"/>
       <c r="G153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H153" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I153" t="s">
         <v>17</v>
@@ -5109,10 +5116,10 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
@@ -5120,10 +5127,10 @@
       <c r="E154"/>
       <c r="F154"/>
       <c r="G154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -5134,10 +5141,10 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C155" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -5145,10 +5152,10 @@
       <c r="E155"/>
       <c r="F155"/>
       <c r="G155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I155" t="s">
         <v>17</v>
@@ -5159,10 +5166,10 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C156" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -5170,10 +5177,10 @@
       <c r="E156"/>
       <c r="F156"/>
       <c r="G156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H156" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -5184,10 +5191,10 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -5195,10 +5202,10 @@
       <c r="E157"/>
       <c r="F157"/>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H157" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I157" t="s">
         <v>17</v>
@@ -5209,10 +5216,10 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
@@ -5220,10 +5227,10 @@
       <c r="E158"/>
       <c r="F158"/>
       <c r="G158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H158" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I158" t="s">
         <v>17</v>
@@ -5234,10 +5241,10 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -5245,10 +5252,10 @@
       <c r="E159"/>
       <c r="F159"/>
       <c r="G159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H159" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I159" t="s">
         <v>17</v>
@@ -5259,10 +5266,10 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -5270,10 +5277,10 @@
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H160" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
@@ -5284,10 +5291,10 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -5295,10 +5302,10 @@
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -5309,10 +5316,10 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C162" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -5320,10 +5327,10 @@
       <c r="E162"/>
       <c r="F162"/>
       <c r="G162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H162" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I162" t="s">
         <v>17</v>
@@ -5334,10 +5341,10 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
@@ -5345,10 +5352,10 @@
       <c r="E163"/>
       <c r="F163"/>
       <c r="G163" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I163" t="s">
         <v>17</v>
@@ -5359,10 +5366,10 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C164" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
@@ -5370,10 +5377,10 @@
       <c r="E164"/>
       <c r="F164"/>
       <c r="G164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I164" t="s">
         <v>17</v>
@@ -5384,10 +5391,10 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C165" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
@@ -5395,10 +5402,10 @@
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H165" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -5409,10 +5416,10 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
@@ -5420,10 +5427,10 @@
       <c r="E166"/>
       <c r="F166"/>
       <c r="G166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H166" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -5434,10 +5441,10 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -5445,10 +5452,10 @@
       <c r="E167"/>
       <c r="F167"/>
       <c r="G167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H167" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
@@ -5459,10 +5466,10 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C168" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
@@ -5470,10 +5477,10 @@
       <c r="E168"/>
       <c r="F168"/>
       <c r="G168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H168" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I168" t="s">
         <v>17</v>
@@ -5484,21 +5491,21 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C169" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D169" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E169"/>
       <c r="F169"/>
       <c r="G169" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I169" t="s">
         <v>17</v>

--- a/assets/excel/Report Nominatif.xlsx
+++ b/assets/excel/Report Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
   <si>
     <t>REPORT NOMINATIF</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Abdul Latief Baedhowi</t>
   </si>
   <si>
-    <t>Palembang/1982-06-08/2012.12.01.002/Islam</t>
+    <t>//2012.12.01.002/Islam</t>
   </si>
   <si>
     <t>Laki-laki</t>
@@ -62,10 +62,10 @@
     <t>0000-00-00</t>
   </si>
   <si>
-    <t>SMA/IPA/2001-03-14</t>
-  </si>
-  <si>
-    <t>jakarta pusat/082180712764</t>
+    <t>S1/Manajamen Bisnis/2019-06-05</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t>Aktif</t>
@@ -77,48 +77,45 @@
     <t>//2012.12.01.003/Islam</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>S1/Ekonomi/2011-06-21</t>
-  </si>
-  <si>
-    <t>/</t>
+    <t>S2/Ekonomi/2011-06-21</t>
   </si>
   <si>
     <t>Iwan Setiyawan</t>
   </si>
   <si>
-    <t>//2012.12.01.004/Islam</t>
+    <t>Bantul/2022-06-06/2012.12.01.004/Islam</t>
+  </si>
+  <si>
+    <t>S1/Informastika/2022-06-20</t>
+  </si>
+  <si>
+    <t>Tri Wardaningtyas</t>
+  </si>
+  <si>
+    <t>//2012.12.01.005/Islam</t>
+  </si>
+  <si>
+    <t>S1/Statitik/1999-07-07</t>
+  </si>
+  <si>
+    <t>Sudarsono</t>
+  </si>
+  <si>
+    <t>//2012.12.01.006/Islam</t>
+  </si>
+  <si>
+    <t>S1/IT/2012-01-09</t>
+  </si>
+  <si>
+    <t>Tri Bekti Rianto</t>
+  </si>
+  <si>
+    <t>//2012.12.01.008/Islam</t>
   </si>
   <si>
     <t>//</t>
   </si>
   <si>
-    <t>Tri Wardaningtyas</t>
-  </si>
-  <si>
-    <t>//2012.12.01.005/Islam</t>
-  </si>
-  <si>
-    <t>S1/Statitik/1999-07-07</t>
-  </si>
-  <si>
-    <t>Sudarsono</t>
-  </si>
-  <si>
-    <t>//2012.12.01.006/Islam</t>
-  </si>
-  <si>
-    <t>S1/IT/2012-01-09</t>
-  </si>
-  <si>
-    <t>Tri Bekti Rianto</t>
-  </si>
-  <si>
-    <t>//2012.12.01.008/Islam</t>
-  </si>
-  <si>
     <t>Samiran</t>
   </si>
   <si>
@@ -143,7 +140,7 @@
     <t>//2012.12.01.011/Islam</t>
   </si>
   <si>
-    <t>D3/Teknik Informatika/2010-02-02</t>
+    <t>DIII/Teknik Informatika/2010-02-02</t>
   </si>
   <si>
     <t>Ihsanuddin</t>
@@ -152,7 +149,7 @@
     <t>//2012.12.01.012/Islam</t>
   </si>
   <si>
-    <t>D3/Statitik/2007-07-24</t>
+    <t>DIII/Statitik/2007-07-24</t>
   </si>
   <si>
     <t>Sukirman</t>
@@ -167,7 +164,7 @@
     <t>//2012.12.01.014/Islam</t>
   </si>
   <si>
-    <t>D3/Ilmu Ekonomi Islam/2003-03-12</t>
+    <t>DIII/Ilmu Ekonomi Islam/2003-03-12</t>
   </si>
   <si>
     <t>Rudi Riswanto</t>
@@ -209,6 +206,9 @@
     <t>//2012.12.01.019/Islam</t>
   </si>
   <si>
+    <t>DIII/Akutansi/2022-06-08</t>
+  </si>
+  <si>
     <t>Aristiyo Budi</t>
   </si>
   <si>
@@ -275,6 +275,9 @@
     <t>//2012.12.04.037/Islam</t>
   </si>
   <si>
+    <t>S1/Informastika/2022-06-22</t>
+  </si>
+  <si>
     <t>Ihsan Zulkarnain</t>
   </si>
   <si>
@@ -905,6 +908,9 @@
     <t>Administrasi Personalia</t>
   </si>
   <si>
+    <t>DIII/Akutansi/2022-06-22</t>
+  </si>
+  <si>
     <t>Arimbi Himsa L</t>
   </si>
   <si>
@@ -963,6 +969,12 @@
   </si>
   <si>
     <t>Darit/2001-08-09/123/Islam</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
   </si>
   <si>
     <t>ratnasari</t>
@@ -1391,17 +1403,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -1412,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1423,10 +1431,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -1437,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1448,10 +1456,10 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -1462,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1473,10 +1481,10 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -1487,10 +1495,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1498,10 +1506,10 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1512,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1523,10 +1531,10 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1537,10 +1545,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1548,10 +1556,10 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -1562,10 +1570,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1573,10 +1581,10 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -1587,10 +1595,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1598,10 +1606,10 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -1612,10 +1620,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1623,10 +1631,10 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1637,10 +1645,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1648,10 +1656,10 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -1662,10 +1670,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1673,10 +1681,10 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -1687,10 +1695,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1698,10 +1706,10 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -1712,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1723,10 +1731,10 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1737,10 +1745,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1748,10 +1756,10 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1762,10 +1770,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1773,10 +1781,10 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -1798,10 +1806,10 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -1823,10 +1831,10 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1848,10 +1856,10 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1873,10 +1881,10 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1898,10 +1906,10 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1923,10 +1931,10 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1948,10 +1956,10 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1973,10 +1981,10 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1998,10 +2006,10 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -2023,10 +2031,10 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -2048,10 +2056,10 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -2062,10 +2070,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -2073,10 +2081,10 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -2087,10 +2095,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -2098,10 +2106,10 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -2112,10 +2120,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -2123,10 +2131,10 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -2137,10 +2145,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -2148,10 +2156,10 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -2162,10 +2170,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -2173,10 +2181,10 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -2187,10 +2195,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2198,10 +2206,10 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -2212,10 +2220,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2223,10 +2231,10 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -2237,10 +2245,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2248,10 +2256,10 @@
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -2262,10 +2270,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2273,10 +2281,10 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -2287,10 +2295,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2298,10 +2306,10 @@
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -2312,10 +2320,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2323,10 +2331,10 @@
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -2337,10 +2345,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2348,10 +2356,10 @@
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -2362,10 +2370,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2373,10 +2381,10 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -2387,10 +2395,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2398,10 +2406,10 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -2412,10 +2420,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2423,10 +2431,10 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -2437,10 +2445,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2448,10 +2456,10 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -2462,10 +2470,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2473,10 +2481,10 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -2487,10 +2495,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2498,10 +2506,10 @@
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -2512,10 +2520,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2523,10 +2531,10 @@
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -2537,10 +2545,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2548,10 +2556,10 @@
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I51" t="s">
         <v>17</v>
@@ -2562,10 +2570,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -2573,10 +2581,10 @@
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
         <v>17</v>
@@ -2587,10 +2595,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -2598,10 +2606,10 @@
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
@@ -2612,10 +2620,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2623,10 +2631,10 @@
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
         <v>17</v>
@@ -2637,10 +2645,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2648,10 +2656,10 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
@@ -2662,10 +2670,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2673,10 +2681,10 @@
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
@@ -2687,10 +2695,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2698,10 +2706,10 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
@@ -2712,10 +2720,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2723,10 +2731,10 @@
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -2737,10 +2745,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2748,10 +2756,10 @@
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
         <v>17</v>
@@ -2762,10 +2770,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2773,10 +2781,10 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
@@ -2787,10 +2795,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2798,10 +2806,10 @@
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I61" t="s">
         <v>17</v>
@@ -2812,10 +2820,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2823,10 +2831,10 @@
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
@@ -2837,10 +2845,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -2848,10 +2856,10 @@
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -2862,10 +2870,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -2873,10 +2881,10 @@
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -2887,10 +2895,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2898,10 +2906,10 @@
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -2912,10 +2920,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2923,10 +2931,10 @@
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -2937,10 +2945,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2948,10 +2956,10 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -2962,10 +2970,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2973,10 +2981,10 @@
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -2987,10 +2995,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -2998,10 +3006,10 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -3012,10 +3020,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3023,10 +3031,10 @@
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -3037,10 +3045,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3048,10 +3056,10 @@
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -3062,10 +3070,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3073,10 +3081,10 @@
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
@@ -3087,10 +3095,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3098,10 +3106,10 @@
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -3112,10 +3120,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3123,10 +3131,10 @@
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -3137,10 +3145,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3148,10 +3156,10 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -3162,10 +3170,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3173,10 +3181,10 @@
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -3187,10 +3195,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -3198,10 +3206,10 @@
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -3212,10 +3220,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -3223,10 +3231,10 @@
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
@@ -3237,10 +3245,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -3248,10 +3256,10 @@
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -3262,10 +3270,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3273,10 +3281,10 @@
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
@@ -3287,10 +3295,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3298,10 +3306,10 @@
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -3312,10 +3320,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3323,10 +3331,10 @@
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -3337,10 +3345,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3348,10 +3356,10 @@
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
@@ -3362,10 +3370,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3373,10 +3381,10 @@
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -3387,10 +3395,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3398,10 +3406,10 @@
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -3412,10 +3420,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3423,10 +3431,10 @@
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -3437,10 +3445,10 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3448,10 +3456,10 @@
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -3462,10 +3470,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3473,10 +3481,10 @@
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -3487,10 +3495,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3498,10 +3506,10 @@
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -3512,10 +3520,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3523,10 +3531,10 @@
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H90" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -3537,10 +3545,10 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -3548,10 +3556,10 @@
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H91" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -3562,10 +3570,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -3573,10 +3581,10 @@
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -3587,10 +3595,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -3598,10 +3606,10 @@
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I93" t="s">
         <v>17</v>
@@ -3612,10 +3620,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -3623,10 +3631,10 @@
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H94" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -3637,10 +3645,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -3648,10 +3656,10 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -3662,10 +3670,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3673,10 +3681,10 @@
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -3687,10 +3695,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3698,10 +3706,10 @@
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H97" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -3712,10 +3720,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -3723,10 +3731,10 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H98" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -3737,10 +3745,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -3748,10 +3756,10 @@
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H99" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I99" t="s">
         <v>17</v>
@@ -3762,10 +3770,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -3773,10 +3781,10 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H100" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
@@ -3787,10 +3795,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -3798,10 +3806,10 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -3812,10 +3820,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -3823,10 +3831,10 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H102" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I102" t="s">
         <v>17</v>
@@ -3837,10 +3845,10 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -3848,10 +3856,10 @@
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -3862,10 +3870,10 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3873,10 +3881,10 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H104" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -3887,10 +3895,10 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -3898,10 +3906,10 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H105" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -3912,10 +3920,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -3923,10 +3931,10 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H106" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -3937,10 +3945,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -3948,10 +3956,10 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H107" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -3962,10 +3970,10 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -3973,10 +3981,10 @@
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H108" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I108" t="s">
         <v>17</v>
@@ -3987,10 +3995,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -3998,10 +4006,10 @@
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H109" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -4012,10 +4020,10 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -4023,10 +4031,10 @@
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H110" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
@@ -4037,10 +4045,10 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -4048,10 +4056,10 @@
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H111" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -4062,10 +4070,10 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -4073,10 +4081,10 @@
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H112" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -4087,10 +4095,10 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -4098,10 +4106,10 @@
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H113" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -4112,10 +4120,10 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -4123,10 +4131,10 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H114" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -4137,10 +4145,10 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -4148,10 +4156,10 @@
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H115" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I115" t="s">
         <v>17</v>
@@ -4162,10 +4170,10 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -4173,10 +4181,10 @@
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H116" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I116" t="s">
         <v>17</v>
@@ -4187,10 +4195,10 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -4198,10 +4206,10 @@
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H117" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I117" t="s">
         <v>17</v>
@@ -4212,10 +4220,10 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
@@ -4223,10 +4231,10 @@
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H118" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I118" t="s">
         <v>17</v>
@@ -4237,10 +4245,10 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C119" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -4248,10 +4256,10 @@
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H119" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -4262,10 +4270,10 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -4273,10 +4281,10 @@
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H120" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -4287,10 +4295,10 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -4298,10 +4306,10 @@
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H121" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -4312,10 +4320,10 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -4323,10 +4331,10 @@
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H122" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -4337,10 +4345,10 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C123" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -4348,10 +4356,10 @@
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H123" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -4362,10 +4370,10 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
+        <v>271</v>
+      </c>
+      <c r="C124" t="s">
         <v>270</v>
-      </c>
-      <c r="C124" t="s">
-        <v>269</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -4373,10 +4381,10 @@
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H124" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -4387,10 +4395,10 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -4398,10 +4406,10 @@
       <c r="E125"/>
       <c r="F125"/>
       <c r="G125" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H125" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -4412,10 +4420,10 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C126" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -4423,10 +4431,10 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H126" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -4437,10 +4445,10 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C127" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -4448,10 +4456,10 @@
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H127" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
@@ -4462,10 +4470,10 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -4473,10 +4481,10 @@
       <c r="E128"/>
       <c r="F128"/>
       <c r="G128" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I128" t="s">
         <v>17</v>
@@ -4487,10 +4495,10 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -4498,10 +4506,10 @@
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H129" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -4512,10 +4520,10 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -4523,10 +4531,10 @@
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H130" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -4537,10 +4545,10 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -4548,10 +4556,10 @@
       <c r="E131"/>
       <c r="F131"/>
       <c r="G131" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H131" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -4562,10 +4570,10 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -4573,10 +4581,10 @@
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H132" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I132" t="s">
         <v>17</v>
@@ -4587,10 +4595,10 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C133" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -4598,10 +4606,10 @@
       <c r="E133"/>
       <c r="F133"/>
       <c r="G133" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H133" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -4612,10 +4620,10 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -4623,10 +4631,10 @@
       <c r="E134"/>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H134" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I134" t="s">
         <v>17</v>
@@ -4637,10 +4645,10 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
@@ -4648,10 +4656,10 @@
       <c r="E135"/>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H135" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -4662,10 +4670,10 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -4673,10 +4681,10 @@
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H136" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -4687,10 +4695,10 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -4698,10 +4706,10 @@
       <c r="E137"/>
       <c r="F137"/>
       <c r="G137" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H137" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I137" t="s">
         <v>17</v>
@@ -4712,10 +4720,10 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -4723,10 +4731,10 @@
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I138" t="s">
         <v>17</v>
@@ -4737,10 +4745,10 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -4748,10 +4756,10 @@
       <c r="E139"/>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H139" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
@@ -4762,10 +4770,10 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -4773,10 +4781,10 @@
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H140" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -4787,10 +4795,10 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -4798,10 +4806,10 @@
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H141" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -4812,10 +4820,10 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -4823,10 +4831,10 @@
       <c r="E142"/>
       <c r="F142"/>
       <c r="G142" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H142" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -4837,10 +4845,10 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -4848,10 +4856,10 @@
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -4862,10 +4870,10 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C144" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -4873,10 +4881,10 @@
       <c r="E144"/>
       <c r="F144"/>
       <c r="G144" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H144" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -4887,10 +4895,10 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -4898,10 +4906,10 @@
       <c r="E145"/>
       <c r="F145"/>
       <c r="G145" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H145" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -4912,10 +4920,10 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C146" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -4923,10 +4931,10 @@
       <c r="E146"/>
       <c r="F146"/>
       <c r="G146" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H146" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -4937,10 +4945,10 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
@@ -4948,10 +4956,10 @@
       <c r="E147"/>
       <c r="F147"/>
       <c r="G147" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H147" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I147" t="s">
         <v>17</v>
@@ -4962,25 +4970,25 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="H148" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I148" t="s">
         <v>17</v>
@@ -4991,10 +4999,10 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -5002,10 +5010,10 @@
       <c r="E149"/>
       <c r="F149"/>
       <c r="G149" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H149" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -5016,10 +5024,10 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -5027,10 +5035,10 @@
       <c r="E150"/>
       <c r="F150"/>
       <c r="G150" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H150" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -5041,10 +5049,10 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -5052,10 +5060,10 @@
       <c r="E151"/>
       <c r="F151"/>
       <c r="G151" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H151" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I151" t="s">
         <v>17</v>
@@ -5066,10 +5074,10 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
@@ -5077,10 +5085,10 @@
       <c r="E152"/>
       <c r="F152"/>
       <c r="G152" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H152" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I152" t="s">
         <v>17</v>
@@ -5091,10 +5099,10 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
@@ -5102,10 +5110,10 @@
       <c r="E153"/>
       <c r="F153"/>
       <c r="G153" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H153" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I153" t="s">
         <v>17</v>
@@ -5116,10 +5124,10 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
@@ -5127,10 +5135,10 @@
       <c r="E154"/>
       <c r="F154"/>
       <c r="G154" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H154" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -5141,10 +5149,10 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -5152,10 +5160,10 @@
       <c r="E155"/>
       <c r="F155"/>
       <c r="G155" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H155" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I155" t="s">
         <v>17</v>
@@ -5166,10 +5174,10 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -5177,10 +5185,10 @@
       <c r="E156"/>
       <c r="F156"/>
       <c r="G156" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H156" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -5191,10 +5199,10 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C157" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -5202,10 +5210,10 @@
       <c r="E157"/>
       <c r="F157"/>
       <c r="G157" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H157" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I157" t="s">
         <v>17</v>
@@ -5216,10 +5224,10 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C158" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
@@ -5227,10 +5235,10 @@
       <c r="E158"/>
       <c r="F158"/>
       <c r="G158" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H158" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I158" t="s">
         <v>17</v>
@@ -5241,10 +5249,10 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -5252,10 +5260,10 @@
       <c r="E159"/>
       <c r="F159"/>
       <c r="G159" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H159" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I159" t="s">
         <v>17</v>
@@ -5266,10 +5274,10 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C160" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -5277,10 +5285,10 @@
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H160" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
@@ -5291,10 +5299,10 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -5302,10 +5310,10 @@
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H161" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -5316,10 +5324,10 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -5327,10 +5335,10 @@
       <c r="E162"/>
       <c r="F162"/>
       <c r="G162" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H162" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I162" t="s">
         <v>17</v>
@@ -5341,10 +5349,10 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
@@ -5352,10 +5360,10 @@
       <c r="E163"/>
       <c r="F163"/>
       <c r="G163" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I163" t="s">
         <v>17</v>
@@ -5366,10 +5374,10 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
@@ -5377,10 +5385,10 @@
       <c r="E164"/>
       <c r="F164"/>
       <c r="G164" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H164" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I164" t="s">
         <v>17</v>
@@ -5391,10 +5399,10 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C165" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
@@ -5402,10 +5410,10 @@
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H165" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -5416,10 +5424,10 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C166" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
@@ -5427,10 +5435,10 @@
       <c r="E166"/>
       <c r="F166"/>
       <c r="G166" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H166" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -5441,10 +5449,10 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C167" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -5452,10 +5460,10 @@
       <c r="E167"/>
       <c r="F167"/>
       <c r="G167" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H167" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
@@ -5466,21 +5474,25 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C168" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
       </c>
-      <c r="E168"/>
-      <c r="F168"/>
+      <c r="E168" t="s">
+        <v>318</v>
+      </c>
+      <c r="F168" t="s">
+        <v>319</v>
+      </c>
       <c r="G168" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H168" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I168" t="s">
         <v>17</v>
@@ -5491,21 +5503,21 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C169" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D169" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E169"/>
       <c r="F169"/>
       <c r="G169" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H169" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I169" t="s">
         <v>17</v>

--- a/assets/excel/Report Nominatif.xlsx
+++ b/assets/excel/Report Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
   <si>
     <t>REPORT NOMINATIF</t>
   </si>
@@ -62,7 +62,7 @@
     <t>0000-00-00</t>
   </si>
   <si>
-    <t>S1/Manajamen Bisnis/2019-06-05</t>
+    <t>//</t>
   </si>
   <si>
     <t>/</t>
@@ -77,16 +77,10 @@
     <t>//2012.12.01.003/Islam</t>
   </si>
   <si>
-    <t>S2/Ekonomi/2011-06-21</t>
-  </si>
-  <si>
     <t>Iwan Setiyawan</t>
   </si>
   <si>
-    <t>Bantul/2022-06-06/2012.12.01.004/Islam</t>
-  </si>
-  <si>
-    <t>S1/Informastika/2022-06-20</t>
+    <t>//2012.12.01.004/Islam</t>
   </si>
   <si>
     <t>Tri Wardaningtyas</t>
@@ -95,63 +89,42 @@
     <t>//2012.12.01.005/Islam</t>
   </si>
   <si>
-    <t>S1/Statitik/1999-07-07</t>
-  </si>
-  <si>
     <t>Sudarsono</t>
   </si>
   <si>
     <t>//2012.12.01.006/Islam</t>
   </si>
   <si>
-    <t>S1/IT/2012-01-09</t>
-  </si>
-  <si>
     <t>Tri Bekti Rianto</t>
   </si>
   <si>
     <t>//2012.12.01.008/Islam</t>
   </si>
   <si>
-    <t>//</t>
-  </si>
-  <si>
     <t>Samiran</t>
   </si>
   <si>
     <t>//2012.12.01.009/Islam</t>
   </si>
   <si>
-    <t>SMP//1966-07-14</t>
-  </si>
-  <si>
     <t>Edy Rusmanto</t>
   </si>
   <si>
     <t>//2012.12.01.010/Islam</t>
   </si>
   <si>
-    <t>SMK/Teknik Mesin/1998-01-13</t>
-  </si>
-  <si>
     <t>Roni Slamet</t>
   </si>
   <si>
     <t>//2012.12.01.011/Islam</t>
   </si>
   <si>
-    <t>DIII/Teknik Informatika/2010-02-02</t>
-  </si>
-  <si>
     <t>Ihsanuddin</t>
   </si>
   <si>
     <t>//2012.12.01.012/Islam</t>
   </si>
   <si>
-    <t>DIII/Statitik/2007-07-24</t>
-  </si>
-  <si>
     <t>Sukirman</t>
   </si>
   <si>
@@ -164,36 +137,24 @@
     <t>//2012.12.01.014/Islam</t>
   </si>
   <si>
-    <t>DIII/Ilmu Ekonomi Islam/2003-03-12</t>
-  </si>
-  <si>
     <t>Rudi Riswanto</t>
   </si>
   <si>
     <t>//2012.12.01.015/Islam</t>
   </si>
   <si>
-    <t>S1/Ilmu Hukum/2014-03-12</t>
-  </si>
-  <si>
     <t>Maryono</t>
   </si>
   <si>
     <t>//2012.12.01.016/Islam</t>
   </si>
   <si>
-    <t>S1/TI/2011-03-16</t>
-  </si>
-  <si>
     <t>Muryanto</t>
   </si>
   <si>
     <t>//2012.12.01.017/Islam</t>
   </si>
   <si>
-    <t>SMA/IPA/1997-06-17</t>
-  </si>
-  <si>
     <t>Heri Susanto</t>
   </si>
   <si>
@@ -206,9 +167,6 @@
     <t>//2012.12.01.019/Islam</t>
   </si>
   <si>
-    <t>DIII/Akutansi/2022-06-08</t>
-  </si>
-  <si>
     <t>Aristiyo Budi</t>
   </si>
   <si>
@@ -275,9 +233,6 @@
     <t>//2012.12.04.037/Islam</t>
   </si>
   <si>
-    <t>S1/Informastika/2022-06-22</t>
-  </si>
-  <si>
     <t>Ihsan Zulkarnain</t>
   </si>
   <si>
@@ -905,12 +860,6 @@
     <t>Ihsan Firdaus</t>
   </si>
   <si>
-    <t>Administrasi Personalia</t>
-  </si>
-  <si>
-    <t>DIII/Akutansi/2022-06-22</t>
-  </si>
-  <si>
     <t>Arimbi Himsa L</t>
   </si>
   <si>
@@ -968,22 +917,7 @@
     <t>Burhanu Sultan Ramadan</t>
   </si>
   <si>
-    <t>Darit/2001-08-09/123/Islam</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>ratnasari</t>
-  </si>
-  <si>
-    <t>Darit/2001-08-09/1234/Islam</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
+    <t>Darit/2001-08-09/9535253/Islam</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1253,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,7 +1340,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -1420,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1431,7 +1365,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -1445,10 +1379,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1456,7 +1390,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -1470,10 +1404,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1481,7 +1415,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -1495,10 +1429,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1506,7 +1440,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1520,10 +1454,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1531,7 +1465,7 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1545,10 +1479,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1556,7 +1490,7 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -1570,10 +1504,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1581,7 +1515,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -1595,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1606,7 +1540,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -1620,10 +1554,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1631,7 +1565,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -1645,10 +1579,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1656,7 +1590,7 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -1670,10 +1604,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1681,7 +1615,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -1695,10 +1629,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1706,7 +1640,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -1720,10 +1654,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1731,7 +1665,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -1745,10 +1679,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1756,7 +1690,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
@@ -1770,10 +1704,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1781,7 +1715,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -1795,10 +1729,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1806,7 +1740,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -1820,10 +1754,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1831,7 +1765,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
@@ -1845,10 +1779,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1856,7 +1790,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
@@ -1870,10 +1804,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1881,7 +1815,7 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
@@ -1895,10 +1829,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1906,7 +1840,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
@@ -1920,10 +1854,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1931,7 +1865,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -1945,10 +1879,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1956,7 +1890,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -1970,10 +1904,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1981,7 +1915,7 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -1995,10 +1929,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -2006,7 +1940,7 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -2020,10 +1954,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -2031,7 +1965,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -2045,10 +1979,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -2056,7 +1990,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -2070,10 +2004,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -2081,7 +2015,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -2095,10 +2029,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -2106,7 +2040,7 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -2120,10 +2054,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -2131,7 +2065,7 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
@@ -2145,10 +2079,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -2156,7 +2090,7 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -2170,10 +2104,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -2181,7 +2115,7 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -2195,10 +2129,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2206,7 +2140,7 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -2220,10 +2154,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2231,7 +2165,7 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
@@ -2245,10 +2179,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2256,7 +2190,7 @@
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -2270,10 +2204,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2281,7 +2215,7 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -2295,10 +2229,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2306,7 +2240,7 @@
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -2320,10 +2254,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2331,7 +2265,7 @@
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
@@ -2345,10 +2279,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2356,7 +2290,7 @@
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -2370,10 +2304,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2381,7 +2315,7 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
@@ -2395,10 +2329,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2406,7 +2340,7 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
@@ -2420,10 +2354,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2431,7 +2365,7 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -2445,10 +2379,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2456,7 +2390,7 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -2470,10 +2404,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2481,7 +2415,7 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -2495,10 +2429,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2506,7 +2440,7 @@
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
@@ -2520,10 +2454,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2531,7 +2465,7 @@
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
@@ -2545,10 +2479,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2556,7 +2490,7 @@
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
@@ -2570,10 +2504,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -2581,7 +2515,7 @@
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
         <v>16</v>
@@ -2595,10 +2529,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -2606,7 +2540,7 @@
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
         <v>16</v>
@@ -2620,10 +2554,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2631,7 +2565,7 @@
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
         <v>16</v>
@@ -2645,10 +2579,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2656,7 +2590,7 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
@@ -2670,10 +2604,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2681,7 +2615,7 @@
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
@@ -2695,10 +2629,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2706,7 +2640,7 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
         <v>16</v>
@@ -2720,10 +2654,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2731,7 +2665,7 @@
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
         <v>16</v>
@@ -2745,10 +2679,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2756,7 +2690,7 @@
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
         <v>16</v>
@@ -2770,10 +2704,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2781,7 +2715,7 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
         <v>16</v>
@@ -2795,10 +2729,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2806,7 +2740,7 @@
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
         <v>16</v>
@@ -2820,10 +2754,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2831,7 +2765,7 @@
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
@@ -2845,10 +2779,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -2856,7 +2790,7 @@
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
         <v>16</v>
@@ -2870,10 +2804,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -2881,7 +2815,7 @@
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
         <v>16</v>
@@ -2895,10 +2829,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2906,7 +2840,7 @@
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H65" t="s">
         <v>16</v>
@@ -2920,10 +2854,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2931,7 +2865,7 @@
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -2945,10 +2879,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2956,7 +2890,7 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
         <v>16</v>
@@ -2970,10 +2904,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2981,7 +2915,7 @@
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
@@ -2995,10 +2929,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3006,7 +2940,7 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
         <v>16</v>
@@ -3020,10 +2954,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3031,7 +2965,7 @@
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -3045,10 +2979,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3056,7 +2990,7 @@
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -3070,10 +3004,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3081,7 +3015,7 @@
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -3095,10 +3029,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3106,7 +3040,7 @@
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
         <v>16</v>
@@ -3120,10 +3054,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3131,7 +3065,7 @@
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
         <v>16</v>
@@ -3145,10 +3079,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3156,7 +3090,7 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
         <v>16</v>
@@ -3170,10 +3104,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3181,7 +3115,7 @@
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
         <v>16</v>
@@ -3195,10 +3129,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -3206,7 +3140,7 @@
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
         <v>16</v>
@@ -3220,10 +3154,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -3231,7 +3165,7 @@
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
         <v>16</v>
@@ -3245,10 +3179,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -3256,7 +3190,7 @@
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
         <v>16</v>
@@ -3270,10 +3204,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3281,7 +3215,7 @@
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
         <v>16</v>
@@ -3295,10 +3229,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3306,7 +3240,7 @@
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
         <v>16</v>
@@ -3320,10 +3254,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3331,7 +3265,7 @@
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
         <v>16</v>
@@ -3345,10 +3279,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3356,7 +3290,7 @@
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
         <v>16</v>
@@ -3370,10 +3304,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3381,7 +3315,7 @@
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H84" t="s">
         <v>16</v>
@@ -3395,10 +3329,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3406,7 +3340,7 @@
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
         <v>16</v>
@@ -3420,10 +3354,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3431,7 +3365,7 @@
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
         <v>16</v>
@@ -3445,10 +3379,10 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3456,7 +3390,7 @@
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H87" t="s">
         <v>16</v>
@@ -3470,10 +3404,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3481,7 +3415,7 @@
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
         <v>16</v>
@@ -3495,10 +3429,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3506,7 +3440,7 @@
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H89" t="s">
         <v>16</v>
@@ -3520,10 +3454,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3531,7 +3465,7 @@
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H90" t="s">
         <v>16</v>
@@ -3545,10 +3479,10 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -3556,7 +3490,7 @@
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
         <v>16</v>
@@ -3570,10 +3504,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -3581,7 +3515,7 @@
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
         <v>16</v>
@@ -3595,10 +3529,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -3606,7 +3540,7 @@
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H93" t="s">
         <v>16</v>
@@ -3620,10 +3554,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -3631,7 +3565,7 @@
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H94" t="s">
         <v>16</v>
@@ -3645,10 +3579,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -3656,7 +3590,7 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H95" t="s">
         <v>16</v>
@@ -3670,10 +3604,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3681,7 +3615,7 @@
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H96" t="s">
         <v>16</v>
@@ -3695,10 +3629,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3706,7 +3640,7 @@
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
         <v>16</v>
@@ -3720,10 +3654,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -3731,7 +3665,7 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
         <v>16</v>
@@ -3745,10 +3679,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -3756,7 +3690,7 @@
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H99" t="s">
         <v>16</v>
@@ -3770,10 +3704,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -3781,7 +3715,7 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H100" t="s">
         <v>16</v>
@@ -3795,10 +3729,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -3806,7 +3740,7 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
         <v>16</v>
@@ -3820,10 +3754,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -3831,7 +3765,7 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
         <v>16</v>
@@ -3845,10 +3779,10 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -3856,7 +3790,7 @@
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H103" t="s">
         <v>16</v>
@@ -3870,10 +3804,10 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3881,7 +3815,7 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H104" t="s">
         <v>16</v>
@@ -3895,10 +3829,10 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -3906,7 +3840,7 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H105" t="s">
         <v>16</v>
@@ -3920,10 +3854,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -3931,7 +3865,7 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H106" t="s">
         <v>16</v>
@@ -3945,10 +3879,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -3956,7 +3890,7 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H107" t="s">
         <v>16</v>
@@ -3970,10 +3904,10 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -3981,7 +3915,7 @@
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H108" t="s">
         <v>16</v>
@@ -3995,10 +3929,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -4006,7 +3940,7 @@
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H109" t="s">
         <v>16</v>
@@ -4020,10 +3954,10 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -4031,7 +3965,7 @@
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
         <v>16</v>
@@ -4045,10 +3979,10 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -4056,7 +3990,7 @@
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H111" t="s">
         <v>16</v>
@@ -4070,10 +4004,10 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -4081,7 +4015,7 @@
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H112" t="s">
         <v>16</v>
@@ -4095,10 +4029,10 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -4106,7 +4040,7 @@
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
         <v>16</v>
@@ -4120,10 +4054,10 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -4131,7 +4065,7 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H114" t="s">
         <v>16</v>
@@ -4145,10 +4079,10 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -4156,7 +4090,7 @@
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H115" t="s">
         <v>16</v>
@@ -4170,10 +4104,10 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -4181,7 +4115,7 @@
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H116" t="s">
         <v>16</v>
@@ -4195,10 +4129,10 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -4206,7 +4140,7 @@
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H117" t="s">
         <v>16</v>
@@ -4220,10 +4154,10 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
@@ -4231,7 +4165,7 @@
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H118" t="s">
         <v>16</v>
@@ -4245,10 +4179,10 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -4256,7 +4190,7 @@
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H119" t="s">
         <v>16</v>
@@ -4270,10 +4204,10 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -4281,7 +4215,7 @@
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H120" t="s">
         <v>16</v>
@@ -4295,10 +4229,10 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -4306,7 +4240,7 @@
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H121" t="s">
         <v>16</v>
@@ -4320,10 +4254,10 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -4331,7 +4265,7 @@
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H122" t="s">
         <v>16</v>
@@ -4345,10 +4279,10 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -4356,7 +4290,7 @@
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H123" t="s">
         <v>16</v>
@@ -4370,10 +4304,10 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -4381,7 +4315,7 @@
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H124" t="s">
         <v>16</v>
@@ -4395,10 +4329,10 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -4406,7 +4340,7 @@
       <c r="E125"/>
       <c r="F125"/>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
         <v>16</v>
@@ -4420,10 +4354,10 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C126" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -4431,7 +4365,7 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H126" t="s">
         <v>16</v>
@@ -4445,10 +4379,10 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C127" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -4456,7 +4390,7 @@
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H127" t="s">
         <v>16</v>
@@ -4470,10 +4404,10 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C128" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -4481,7 +4415,7 @@
       <c r="E128"/>
       <c r="F128"/>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H128" t="s">
         <v>16</v>
@@ -4495,10 +4429,10 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C129" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -4506,7 +4440,7 @@
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
         <v>16</v>
@@ -4520,10 +4454,10 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C130" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -4531,7 +4465,7 @@
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H130" t="s">
         <v>16</v>
@@ -4545,10 +4479,10 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -4556,7 +4490,7 @@
       <c r="E131"/>
       <c r="F131"/>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H131" t="s">
         <v>16</v>
@@ -4570,10 +4504,10 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -4581,7 +4515,7 @@
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H132" t="s">
         <v>16</v>
@@ -4595,10 +4529,10 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -4606,7 +4540,7 @@
       <c r="E133"/>
       <c r="F133"/>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H133" t="s">
         <v>16</v>
@@ -4620,10 +4554,10 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -4631,7 +4565,7 @@
       <c r="E134"/>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H134" t="s">
         <v>16</v>
@@ -4645,10 +4579,10 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
@@ -4656,7 +4590,7 @@
       <c r="E135"/>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H135" t="s">
         <v>16</v>
@@ -4670,10 +4604,10 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -4681,7 +4615,7 @@
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
         <v>16</v>
@@ -4695,10 +4629,10 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C137" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -4706,7 +4640,7 @@
       <c r="E137"/>
       <c r="F137"/>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H137" t="s">
         <v>16</v>
@@ -4720,10 +4654,10 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -4731,7 +4665,7 @@
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H138" t="s">
         <v>16</v>
@@ -4745,10 +4679,10 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C139" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -4756,7 +4690,7 @@
       <c r="E139"/>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H139" t="s">
         <v>16</v>
@@ -4770,10 +4704,10 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C140" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -4781,7 +4715,7 @@
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H140" t="s">
         <v>16</v>
@@ -4795,10 +4729,10 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -4806,7 +4740,7 @@
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H141" t="s">
         <v>16</v>
@@ -4820,10 +4754,10 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -4831,7 +4765,7 @@
       <c r="E142"/>
       <c r="F142"/>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H142" t="s">
         <v>16</v>
@@ -4845,10 +4779,10 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C143" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -4856,7 +4790,7 @@
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H143" t="s">
         <v>16</v>
@@ -4870,10 +4804,10 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C144" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -4881,7 +4815,7 @@
       <c r="E144"/>
       <c r="F144"/>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H144" t="s">
         <v>16</v>
@@ -4895,10 +4829,10 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -4906,7 +4840,7 @@
       <c r="E145"/>
       <c r="F145"/>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H145" t="s">
         <v>16</v>
@@ -4920,10 +4854,10 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C146" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -4931,7 +4865,7 @@
       <c r="E146"/>
       <c r="F146"/>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H146" t="s">
         <v>16</v>
@@ -4945,10 +4879,10 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C147" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
@@ -4956,7 +4890,7 @@
       <c r="E147"/>
       <c r="F147"/>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H147" t="s">
         <v>16</v>
@@ -4970,22 +4904,18 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C148" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
-      <c r="E148" t="s">
-        <v>296</v>
-      </c>
-      <c r="F148" t="s">
-        <v>14</v>
-      </c>
+      <c r="E148"/>
+      <c r="F148"/>
       <c r="G148" t="s">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="H148" t="s">
         <v>16</v>
@@ -4999,10 +4929,10 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C149" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -5010,7 +4940,7 @@
       <c r="E149"/>
       <c r="F149"/>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H149" t="s">
         <v>16</v>
@@ -5024,10 +4954,10 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C150" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -5035,7 +4965,7 @@
       <c r="E150"/>
       <c r="F150"/>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H150" t="s">
         <v>16</v>
@@ -5049,10 +4979,10 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C151" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -5060,7 +4990,7 @@
       <c r="E151"/>
       <c r="F151"/>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H151" t="s">
         <v>16</v>
@@ -5074,10 +5004,10 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C152" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
@@ -5085,7 +5015,7 @@
       <c r="E152"/>
       <c r="F152"/>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H152" t="s">
         <v>16</v>
@@ -5099,10 +5029,10 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C153" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
@@ -5110,7 +5040,7 @@
       <c r="E153"/>
       <c r="F153"/>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H153" t="s">
         <v>16</v>
@@ -5124,10 +5054,10 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C154" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
@@ -5135,7 +5065,7 @@
       <c r="E154"/>
       <c r="F154"/>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
         <v>16</v>
@@ -5149,10 +5079,10 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C155" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -5160,7 +5090,7 @@
       <c r="E155"/>
       <c r="F155"/>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H155" t="s">
         <v>16</v>
@@ -5174,10 +5104,10 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C156" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -5185,7 +5115,7 @@
       <c r="E156"/>
       <c r="F156"/>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H156" t="s">
         <v>16</v>
@@ -5199,10 +5129,10 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -5210,7 +5140,7 @@
       <c r="E157"/>
       <c r="F157"/>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H157" t="s">
         <v>16</v>
@@ -5224,10 +5154,10 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C158" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
@@ -5235,7 +5165,7 @@
       <c r="E158"/>
       <c r="F158"/>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H158" t="s">
         <v>16</v>
@@ -5249,10 +5179,10 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C159" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -5260,7 +5190,7 @@
       <c r="E159"/>
       <c r="F159"/>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H159" t="s">
         <v>16</v>
@@ -5274,10 +5204,10 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C160" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -5285,7 +5215,7 @@
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
         <v>16</v>
@@ -5299,10 +5229,10 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C161" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -5310,7 +5240,7 @@
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H161" t="s">
         <v>16</v>
@@ -5324,10 +5254,10 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C162" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -5335,7 +5265,7 @@
       <c r="E162"/>
       <c r="F162"/>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H162" t="s">
         <v>16</v>
@@ -5349,10 +5279,10 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C163" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
@@ -5360,7 +5290,7 @@
       <c r="E163"/>
       <c r="F163"/>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H163" t="s">
         <v>16</v>
@@ -5374,10 +5304,10 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C164" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
@@ -5385,7 +5315,7 @@
       <c r="E164"/>
       <c r="F164"/>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H164" t="s">
         <v>16</v>
@@ -5399,10 +5329,10 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C165" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
@@ -5410,7 +5340,7 @@
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H165" t="s">
         <v>16</v>
@@ -5424,10 +5354,10 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C166" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
@@ -5435,7 +5365,7 @@
       <c r="E166"/>
       <c r="F166"/>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H166" t="s">
         <v>16</v>
@@ -5449,10 +5379,10 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C167" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -5460,7 +5390,7 @@
       <c r="E167"/>
       <c r="F167"/>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H167" t="s">
         <v>16</v>
@@ -5474,52 +5404,23 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C168" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
       </c>
-      <c r="E168" t="s">
-        <v>318</v>
-      </c>
-      <c r="F168" t="s">
-        <v>319</v>
-      </c>
+      <c r="E168"/>
+      <c r="F168"/>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H168" t="s">
         <v>16</v>
       </c>
       <c r="I168" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>320</v>
-      </c>
-      <c r="C169" t="s">
-        <v>321</v>
-      </c>
-      <c r="D169" t="s">
-        <v>322</v>
-      </c>
-      <c r="E169"/>
-      <c r="F169"/>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
-      <c r="H169" t="s">
-        <v>16</v>
-      </c>
-      <c r="I169" t="s">
         <v>17</v>
       </c>
     </row>

--- a/assets/excel/Report Nominatif.xlsx
+++ b/assets/excel/Report Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>REPORT NOMINATIF</t>
   </si>
@@ -918,6 +918,12 @@
   </si>
   <si>
     <t>Darit/2001-08-09/9535253/Islam</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>S3/Infromatics/2022-07-12</t>
   </si>
 </sst>
 </file>
@@ -5412,10 +5418,14 @@
       <c r="D168" t="s">
         <v>12</v>
       </c>
-      <c r="E168"/>
-      <c r="F168"/>
+      <c r="E168" t="s">
+        <v>301</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
       <c r="G168" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="H168" t="s">
         <v>16</v>
